--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -179,8 +182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:M6" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:M6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:M7" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:M7"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,107 +573,74 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>135</v>
-      </c>
-      <c r="F3">
-        <v>9.9981689453125</v>
-      </c>
-      <c r="G3">
-        <v>140</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>135</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>136.5</v>
+        <v>135</v>
       </c>
       <c r="F4">
-        <v>9.9981727600097656</v>
+        <v>9.9981689453125</v>
       </c>
       <c r="G4">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>160.23699999999999</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -687,28 +657,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>154.52000427246094</v>
+        <v>136.5</v>
       </c>
       <c r="F5">
-        <v>9.9981651306152344</v>
+        <v>9.9981727600097656</v>
       </c>
       <c r="G5">
-        <v>160.85000610351562</v>
+        <v>175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-140.911</v>
+        <v>160.23699999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -725,39 +695,77 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>154.52000427246094</v>
+      </c>
+      <c r="F6">
+        <v>9.9981651306152344</v>
+      </c>
+      <c r="G6">
+        <v>160.85000610351562</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-140.911</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>148.24000549316406</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>9.9981689453125</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>177.60000610351562</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>-150</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
     </row>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
@@ -13,48 +13,46 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="npcCfg" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="F:\GitHub\Gaolx_Fantastic_Dream\Client\Unity\Assets\AssetBundles\Configs\ResCfgs\xml\npcCfg.xml" htmlTables="1"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NPC_Name</t>
+  </si>
+  <si>
     <t>NPC_ResPath</t>
   </si>
   <si>
-    <t>NPC_Transform_Position_X</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Position_Y</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Position_Z</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Rotation_X</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Rotation_Y</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Rotation_Z</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Scale_X</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Scale_Y</t>
-  </si>
-  <si>
-    <t>NPC_Transform_Scale_Z</t>
+    <t>vec3</t>
+  </si>
+  <si>
+    <t>NPC_Transform_Position</t>
+  </si>
+  <si>
+    <t>NPC_Transform_Rotation</t>
+  </si>
+  <si>
+    <t>NPC_Transform_Scale</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
   <si>
     <t>Assets/AssetBundles/Prefabs/GameMain/PrefabAvatar/PrefabNPC/NPC_0.prefab</t>
@@ -69,28 +67,31 @@
     <t>Assets/AssetBundles/Prefabs/GameMain/PrefabAvatar/PrefabNPC/NPC_3.prefab</t>
   </si>
   <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>NPC_Name</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>##group</t>
+    <t>135,9.9981689453125,140</t>
+  </si>
+  <si>
+    <t>136.5,9.99817276000976,175</t>
+  </si>
+  <si>
+    <t>154.52000427246,9.99816513061523,160.850006103515</t>
+  </si>
+  <si>
+    <t>148.240005493164,9.9981689453125,177.600006103515</t>
+  </si>
+  <si>
+    <t>0,135,0</t>
+  </si>
+  <si>
+    <t>0,160.237,0</t>
+  </si>
+  <si>
+    <t>0,-140.911,0</t>
+  </si>
+  <si>
+    <t>0,-150,0</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
   </si>
 </sst>
 </file>
@@ -106,15 +107,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,13 +129,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,84 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="root">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="item" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="NPC_ResPath" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Position_X" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Position_Y" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Position_Z" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Rotation_X" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Rotation_Y" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Rotation_Z" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Scale_X" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Scale_Y" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="NPC_Transform_Scale_Z" form="unqualified"/>
-                </xsd:sequence>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="root_Map" RootElement="root" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:M7" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B3:M7"/>
-  <tableColumns count="12">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="NPC_Name"/>
-    <tableColumn id="2" uniqueName="NPC_ResPath" name="NPC_ResPath">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_ResPath" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="NPC_Transform_Position_X" name="NPC_Transform_Position_X">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Position_X" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="NPC_Transform_Position_Y" name="NPC_Transform_Position_Y">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Position_Y" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="NPC_Transform_Position_Z" name="NPC_Transform_Position_Z">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Position_Z" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="NPC_Transform_Rotation_X" name="NPC_Transform_Rotation_X">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Rotation_X" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="NPC_Transform_Rotation_Y" name="NPC_Transform_Rotation_Y">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Rotation_Y" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="NPC_Transform_Rotation_Z" name="NPC_Transform_Rotation_Z">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Rotation_Z" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="NPC_Transform_Scale_X" name="NPC_Transform_Scale_X">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Scale_X" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="NPC_Transform_Scale_Y" name="NPC_Transform_Scale_Y">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Scale_Y" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="NPC_Transform_Scale_Z" name="NPC_Transform_Scale_Z">
-      <xmlColumnPr mapId="1" xpath="/root/item/NPC_Transform_Scale_Z" xmlDataType="double"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,266 +499,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" customWidth="1"/>
+    <col min="5" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>135</v>
-      </c>
-      <c r="F4">
-        <v>9.9981689453125</v>
-      </c>
-      <c r="G4">
-        <v>140</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>135</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>136.5</v>
-      </c>
-      <c r="F5">
-        <v>9.9981727600097656</v>
-      </c>
-      <c r="G5">
-        <v>175</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>160.23699999999999</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>154.52000427246094</v>
-      </c>
-      <c r="F6">
-        <v>9.9981651306152344</v>
-      </c>
-      <c r="G6">
-        <v>160.85000610351562</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>-140.911</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>148.24000549316406</v>
-      </c>
-      <c r="F7">
-        <v>9.9981689453125</v>
-      </c>
-      <c r="G7">
-        <v>177.60000610351562</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>-150</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#npcCfg.xlsx
@@ -91,7 +91,7 @@
     <t>0,-150,0</t>
   </si>
   <si>
-    <t>1,1,1</t>
+    <t>0.8,0.8,0.8</t>
   </si>
 </sst>
 </file>
@@ -178,6 +178,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,9 +191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +500,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+      <selection activeCell="K6" sqref="K6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,35 +523,35 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -566,21 +566,21 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -592,21 +592,21 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -618,21 +618,21 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -644,21 +644,21 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -670,33 +670,24 @@
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
@@ -709,6 +700,15 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
